--- a/Excel/TI/Mon_TI_2024_03_08.xlsx
+++ b/Excel/TI/Mon_TI_2024_03_08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL29"/>
+  <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,59 +628,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LeBron James</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Jalen Brunson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>45.4</v>
+        <v>30.8</v>
       </c>
       <c r="G2" t="n">
-        <v>44.1</v>
+        <v>39.6</v>
       </c>
       <c r="H2" t="n">
-        <v>41.2</v>
+        <v>38.2</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
-      </c>
-      <c r="N2" t="n">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O2" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="P2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -689,28 +697,24 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>47</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v>34</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
@@ -729,46 +733,46 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
           <t>SAC</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
       <c r="AI2" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -776,42 +780,38 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Zion Williamson</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="G3" t="n">
-        <v>39.6</v>
+        <v>37.6</v>
       </c>
       <c r="H3" t="n">
-        <v>38.2</v>
+        <v>36.3</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
@@ -820,47 +820,47 @@
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="O3" t="n">
-        <v>32</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="P3" t="n">
+        <v>28</v>
       </c>
       <c r="Q3" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="R3" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X3" t="n">
-        <v>34</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
@@ -874,12 +874,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -889,36 +889,36 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
           <t>POR</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
@@ -926,59 +926,59 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zion Williamson</t>
+          <t>Alperen Sengun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>29.8</v>
+        <v>43.8</v>
       </c>
       <c r="G4" t="n">
-        <v>37.1</v>
+        <v>35.3</v>
       </c>
       <c r="H4" t="n">
-        <v>36.2</v>
+        <v>37.7</v>
       </c>
       <c r="I4" t="n">
         <v>11</v>
       </c>
       <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="O4" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="P4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="R4" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -1025,46 +1025,46 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
           <t>CLE</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>-3.1</v>
       </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
@@ -1072,12 +1072,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1092,43 +1092,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>37</v>
+        <v>29.4</v>
       </c>
       <c r="G5" t="n">
-        <v>36.6</v>
+        <v>35.2</v>
       </c>
       <c r="H5" t="n">
-        <v>32.9</v>
+        <v>37.7</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="O5" t="n">
+        <v>27</v>
+      </c>
+      <c r="P5" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="n">
         <v>37</v>
       </c>
-      <c r="P5" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>18</v>
-      </c>
       <c r="R5" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1137,18 +1137,16 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>52</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -1172,22 +1170,22 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1197,7 +1195,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1207,7 +1205,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1216,10 +1214,10 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AK5" t="n">
-        <v>-1.2</v>
+        <v>-6.5</v>
       </c>
       <c r="AL5" t="n">
         <v>7</v>
@@ -1228,79 +1226,79 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>38.8</v>
+        <v>33.4</v>
       </c>
       <c r="G6" t="n">
-        <v>35.6</v>
+        <v>34.3</v>
       </c>
       <c r="H6" t="n">
-        <v>33.2</v>
+        <v>33.9</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="O6" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" t="n">
-        <v>26</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="R6" t="n">
+        <v>20</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
-        <v>32</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -1324,12 +1322,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1339,36 +1337,36 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>-2.9</v>
+        <v>1.4</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -1376,63 +1374,59 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>36.8</v>
+        <v>29.2</v>
       </c>
       <c r="G7" t="n">
-        <v>35.1</v>
+        <v>31.5</v>
       </c>
       <c r="H7" t="n">
-        <v>38.1</v>
+        <v>30.7</v>
       </c>
       <c r="I7" t="n">
         <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
+        <v>18</v>
+      </c>
+      <c r="O7" t="n">
+        <v>34</v>
+      </c>
+      <c r="P7" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q7" t="n">
         <v>40</v>
       </c>
-      <c r="O7" t="n">
-        <v>37</v>
-      </c>
-      <c r="P7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>51</v>
-      </c>
       <c r="R7" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1441,7 +1435,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1450,7 +1444,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1479,17 +1473,17 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1499,7 +1493,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1509,7 +1503,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1518,71 +1512,73 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>7</v>
-      </c>
+        <v>-0.9</v>
+      </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>37.8</v>
+        <v>34.2</v>
       </c>
       <c r="G8" t="n">
-        <v>34.7</v>
+        <v>30.8</v>
       </c>
       <c r="H8" t="n">
-        <v>35.9</v>
+        <v>30.7</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>32</v>
-      </c>
-      <c r="O8" t="n">
-        <v>44</v>
-      </c>
-      <c r="P8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R8" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1591,7 +1587,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1600,7 +1596,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1629,27 +1625,27 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1659,7 +1655,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1668,7 +1664,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.2</v>
+        <v>-2.7</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
@@ -1676,12 +1672,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1692,22 +1688,22 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>36.4</v>
+        <v>32.8</v>
       </c>
       <c r="G9" t="n">
-        <v>33.9</v>
+        <v>30.5</v>
       </c>
       <c r="H9" t="n">
-        <v>30.9</v>
+        <v>35.1</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1716,20 +1712,20 @@
         <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O9" t="n">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>24</v>
+      </c>
+      <c r="R9" t="n">
         <v>40</v>
       </c>
-      <c r="P9" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>45</v>
-      </c>
-      <c r="R9" t="n">
-        <v>43</v>
-      </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>@</t>
@@ -1737,16 +1733,18 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>42</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1770,12 +1768,12 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1785,27 +1783,27 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1814,7 +1812,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>-1.3</v>
+        <v>-2.3</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
@@ -1822,89 +1820,85 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>38.6</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>33.8</v>
+        <v>29.7</v>
       </c>
       <c r="H10" t="n">
-        <v>32.8</v>
+        <v>29.8</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>44</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="n">
-        <v>30</v>
-      </c>
-      <c r="O10" t="n">
-        <v>54</v>
-      </c>
       <c r="P10" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="Q10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>38</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>55</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
@@ -1923,19 +1917,19 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
           <t>BKN</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
       <c r="AE10" t="inlineStr">
         <is>
           <t>@</t>
@@ -1943,26 +1937,26 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>-1.4</v>
+        <v>-2.9</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -1970,59 +1964,59 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
+        <v>28</v>
+      </c>
+      <c r="G11" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>24</v>
+      </c>
+      <c r="O11" t="n">
         <v>32</v>
       </c>
-      <c r="G11" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>9</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>35</v>
-      </c>
-      <c r="O11" t="n">
-        <v>27</v>
-      </c>
       <c r="P11" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="Q11" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="R11" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -2031,77 +2025,77 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>BKN</t>
-        </is>
-      </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2110,7 +2104,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
@@ -2118,99 +2112,95 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>32.1</v>
+        <v>28.4</v>
       </c>
       <c r="H12" t="n">
-        <v>35.2</v>
+        <v>24.4</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
       </c>
       <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
         <v>3</v>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="O12" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q12" t="n">
-        <v>40</v>
-      </c>
-      <c r="R12" t="n">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>21</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
+        <v>20</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
@@ -2219,7 +2209,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2229,36 +2219,36 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>-2.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
@@ -2266,77 +2256,83 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Alperen Sengun</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>Jerami Grant</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>20.2</v>
       </c>
       <c r="G13" t="n">
-        <v>31.7</v>
+        <v>27.9</v>
       </c>
       <c r="H13" t="n">
-        <v>36.7</v>
+        <v>28</v>
       </c>
       <c r="I13" t="n">
         <v>10</v>
       </c>
       <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
         <v>2</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
       <c r="N13" t="n">
-        <v>30</v>
-      </c>
-      <c r="O13" t="n">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>13</v>
+      </c>
+      <c r="R13" t="n">
         <v>43</v>
       </c>
-      <c r="Q13" t="n">
-        <v>33</v>
-      </c>
-      <c r="R13" t="n">
-        <v>30</v>
-      </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -2360,22 +2356,22 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2385,7 +2381,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2395,16 +2391,16 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>-2.1</v>
+        <v>4.2</v>
       </c>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
@@ -2412,85 +2408,89 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="G14" t="n">
-        <v>30.9</v>
+        <v>26.8</v>
       </c>
       <c r="H14" t="n">
-        <v>30.1</v>
+        <v>25.6</v>
       </c>
       <c r="I14" t="n">
         <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
         <v>4</v>
       </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
+        <v>38</v>
+      </c>
+      <c r="P14" t="n">
         <v>22</v>
       </c>
-      <c r="P14" t="n">
-        <v>37</v>
-      </c>
       <c r="Q14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R14" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
-        <v>38</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X14" t="n">
-        <v>55</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
@@ -2509,27 +2509,27 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -2539,16 +2539,16 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>-2.8</v>
+        <v>0.6</v>
       </c>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
@@ -2556,60 +2556,60 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>26.8</v>
+        <v>27.8</v>
       </c>
       <c r="G15" t="n">
-        <v>29.9</v>
+        <v>26.7</v>
       </c>
       <c r="H15" t="n">
-        <v>25.3</v>
+        <v>28.4</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>28</v>
+      </c>
+      <c r="P15" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>59</v>
+      </c>
+      <c r="R15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>32</v>
-      </c>
-      <c r="O15" t="n">
-        <v>37</v>
-      </c>
-      <c r="P15" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>25</v>
-      </c>
-      <c r="R15" t="n">
-        <v>18</v>
-      </c>
       <c r="S15" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2617,69 +2617,67 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>13</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
           <t>MIL</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
       <c r="AG15" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2687,7 +2685,7 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -2696,7 +2694,7 @@
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
@@ -2704,12 +2702,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2720,90 +2718,88 @@
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>29.8</v>
+        <v>21.8</v>
       </c>
       <c r="G16" t="n">
-        <v>28.7</v>
+        <v>26.5</v>
       </c>
       <c r="H16" t="n">
-        <v>24.4</v>
+        <v>21.1</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
         <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
+        <v>22</v>
+      </c>
+      <c r="O16" t="n">
+        <v>38</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>23</v>
+      </c>
+      <c r="R16" t="n">
+        <v>13</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
         <v>19</v>
       </c>
-      <c r="O16" t="n">
-        <v>22</v>
-      </c>
-      <c r="P16" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>CHA</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V16" t="n">
-        <v>21</v>
-      </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2813,36 +2809,36 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
           <t>MEM</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.3</v>
+        <v>-2</v>
       </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
@@ -2850,12 +2846,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2866,40 +2862,40 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>28.8</v>
+        <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>27.8</v>
+        <v>26.3</v>
       </c>
       <c r="H17" t="n">
-        <v>25.9</v>
+        <v>18.4</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O17" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="Q17" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R17" t="n">
         <v>31</v>
@@ -2911,28 +2907,24 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>20</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X17" t="n">
+        <v>-2</v>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
@@ -2951,46 +2943,46 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
           <t>SAC</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
       <c r="AI17" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
@@ -2998,77 +2990,77 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>28.8</v>
+        <v>26.8</v>
       </c>
       <c r="G18" t="n">
-        <v>27.7</v>
+        <v>22.7</v>
       </c>
       <c r="H18" t="n">
-        <v>28.7</v>
+        <v>26.4</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O18" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="Q18" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="R18" t="n">
-        <v>29</v>
+        <v>-2</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -3097,7 +3089,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3107,17 +3099,17 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3127,12 +3119,12 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ18" t="n">
@@ -3144,59 +3136,59 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Gordon Hayward</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>21.8</v>
+        <v>6.2</v>
       </c>
       <c r="G19" t="n">
-        <v>26.3</v>
+        <v>14.4</v>
       </c>
       <c r="H19" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
+        <v>8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>17</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39</v>
-      </c>
-      <c r="O19" t="n">
-        <v>7</v>
-      </c>
-      <c r="P19" t="n">
-        <v>19</v>
-      </c>
       <c r="Q19" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="R19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -3205,24 +3197,24 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X19" t="n">
-        <v>-2</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
@@ -3241,7 +3233,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3251,17 +3243,17 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3271,7 +3263,7 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -3280,7 +3272,7 @@
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
@@ -3288,95 +3280,111 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Donovan Mitchell</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>19.6</v>
+        <v>38.4</v>
       </c>
       <c r="G20" t="n">
-        <v>26.1</v>
+        <v>41.1</v>
       </c>
       <c r="H20" t="n">
-        <v>21.1</v>
+        <v>39.9</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>13</v>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R20" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V20" t="n">
-        <v>19</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X20" t="n">
-        <v>9</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z20" t="n">
-        <v>19</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -3390,12 +3398,12 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
@@ -3405,26 +3413,26 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ20" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
@@ -3432,15 +3440,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>Trae Young</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>G</t>
@@ -3448,16 +3460,16 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>24.6</v>
+        <v>25.4</v>
       </c>
       <c r="G21" t="n">
-        <v>22.5</v>
+        <v>35</v>
       </c>
       <c r="H21" t="n">
-        <v>26.2</v>
+        <v>37.6</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>2</v>
@@ -3466,25 +3478,35 @@
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="N21" t="n">
-        <v>42</v>
-      </c>
-      <c r="O21" t="n">
-        <v>30</v>
-      </c>
-      <c r="P21" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>21</v>
-      </c>
-      <c r="R21" t="n">
-        <v>32</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -3493,75 +3515,75 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>45</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
           <t>POR</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V21" t="n">
-        <v>28</v>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -3570,7 +3592,7 @@
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
@@ -3578,59 +3600,67 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gordon Hayward</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>Tyrese Maxey</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>3.2</v>
+        <v>37.8</v>
       </c>
       <c r="G22" t="n">
-        <v>16</v>
+        <v>34.7</v>
       </c>
       <c r="H22" t="n">
-        <v>19.5</v>
+        <v>35.9</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
         <v>5</v>
       </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="P22" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="Q22" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -3639,7 +3669,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -3648,15 +3678,17 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X22" t="n">
-        <v>32</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
@@ -3670,42 +3702,42 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -3714,7 +3746,7 @@
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
@@ -3727,7 +3759,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3737,52 +3769,50 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>38.4</v>
+        <v>32.4</v>
       </c>
       <c r="G23" t="n">
-        <v>41.1</v>
+        <v>33.3</v>
       </c>
       <c r="H23" t="n">
-        <v>39.9</v>
+        <v>32.2</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O23" t="n">
+        <v>9</v>
       </c>
       <c r="P23" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q23" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="R23" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -3870,7 +3900,7 @@
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>4</v>
+        <v>-1.8</v>
       </c>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
@@ -3878,12 +3908,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3893,24 +3923,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>25.4</v>
+        <v>36.4</v>
       </c>
       <c r="G24" t="n">
-        <v>35</v>
+        <v>33.2</v>
       </c>
       <c r="H24" t="n">
-        <v>37.6</v>
+        <v>29.2</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -3919,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -3942,21 +3972,21 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="V24" t="n">
@@ -3989,46 +4019,46 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
@@ -4036,12 +4066,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4051,33 +4081,33 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>36.4</v>
+        <v>22.4</v>
       </c>
       <c r="G25" t="n">
-        <v>33.2</v>
+        <v>24.5</v>
       </c>
       <c r="H25" t="n">
-        <v>29.2</v>
+        <v>23.3</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -4094,29 +4124,35 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q25" t="n">
-        <v>28</v>
-      </c>
-      <c r="R25" t="n">
-        <v>57</v>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V25" t="n">
-        <v>45</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -4140,22 +4176,22 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
@@ -4165,7 +4201,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -4175,16 +4211,16 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
@@ -4192,12 +4228,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4207,33 +4243,37 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F26" t="n">
-        <v>30.4</v>
+        <v>28.4</v>
       </c>
       <c r="G26" t="n">
-        <v>30.5</v>
+        <v>22.3</v>
       </c>
       <c r="H26" t="n">
-        <v>30.5</v>
+        <v>26.8</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -4250,29 +4290,33 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q26" t="n">
-        <v>50</v>
-      </c>
-      <c r="R26" t="n">
-        <v>19</v>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="V26" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -4296,12 +4340,12 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -4311,517 +4355,41 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Jerami Grant</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="G27" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="H27" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>3</v>
-      </c>
-      <c r="P27" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>43</v>
-      </c>
-      <c r="R27" t="n">
-        <v>11</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V27" t="n">
-        <v>40</v>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Khris Middleton</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="G28" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="H28" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="AG28" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ28" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Tyler Herro</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="G29" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R29" t="n">
-        <v>23</v>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V29" t="n">
-        <v>20</v>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ29" t="n">
         <v>-1.5</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AK26" t="n">
         <v>5.3</v>
       </c>
-      <c r="AL29" t="n">
+      <c r="AL26" t="n">
         <v>5</v>
       </c>
     </row>
